--- a/DATA/OUT/EJEMPLO_3.xlsx
+++ b/DATA/OUT/EJEMPLO_3.xlsx
@@ -7,9 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Entradas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Matriz" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Pesos" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Configuracion" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Umbrales" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Configuracion" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -427,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,6 +447,11 @@
           <t>X2</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>YD1</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -454,6 +460,9 @@
       <c r="B2" t="n">
         <v>0</v>
       </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -462,6 +471,9 @@
       <c r="B3" t="n">
         <v>1</v>
       </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -470,12 +482,18 @@
       <c r="B4" t="n">
         <v>0</v>
       </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>1</v>
       </c>
       <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -507,12 +525,12 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-0.08</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.05</v>
+        <v>0.34</v>
       </c>
     </row>
   </sheetData>
@@ -537,13 +555,46 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>U</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
           <t>Config</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>0.2</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ESCALON</t>
+        </is>
       </c>
     </row>
   </sheetData>
